--- a/Code/Results/Cases/Case_0_138/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_138/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9525919576859856</v>
+        <v>1.041958160785839</v>
       </c>
       <c r="D2">
-        <v>0.9681033301282598</v>
+        <v>1.051097604992053</v>
       </c>
       <c r="E2">
-        <v>0.9643096785950316</v>
+        <v>1.040017988306788</v>
       </c>
       <c r="F2">
-        <v>0.9753195797311819</v>
+        <v>1.057415273793603</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042910136160534</v>
+        <v>1.027628946937137</v>
       </c>
       <c r="J2">
-        <v>0.9762893937994088</v>
+        <v>1.047036566779596</v>
       </c>
       <c r="K2">
-        <v>0.9800256784186274</v>
+        <v>1.05385005141357</v>
       </c>
       <c r="L2">
-        <v>0.9762896944008912</v>
+        <v>1.042801528972241</v>
       </c>
       <c r="M2">
-        <v>0.9871338076228828</v>
+        <v>1.060150306127538</v>
       </c>
       <c r="N2">
-        <v>0.9935525094764124</v>
+        <v>1.019180938722228</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9643246988691837</v>
+        <v>1.044073576991271</v>
       </c>
       <c r="D3">
-        <v>0.9791267371689629</v>
+        <v>1.053135948741015</v>
       </c>
       <c r="E3">
-        <v>0.9742572040931747</v>
+        <v>1.04185683168851</v>
       </c>
       <c r="F3">
-        <v>0.9864810255500586</v>
+        <v>1.059459085152227</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043748967110138</v>
+        <v>1.027664679818867</v>
       </c>
       <c r="J3">
-        <v>0.9858375235302147</v>
+        <v>1.048792430403403</v>
       </c>
       <c r="K3">
-        <v>0.9900338507243416</v>
+        <v>1.055697822168346</v>
       </c>
       <c r="L3">
-        <v>0.9852304213081743</v>
+        <v>1.04444800394525</v>
       </c>
       <c r="M3">
-        <v>0.9972898573938392</v>
+        <v>1.062004827721543</v>
       </c>
       <c r="N3">
-        <v>0.9970397116504895</v>
+        <v>1.019797561336916</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9715719175576931</v>
+        <v>1.045437368906899</v>
       </c>
       <c r="D4">
-        <v>0.9859432058398386</v>
+        <v>1.054449995362226</v>
       </c>
       <c r="E4">
-        <v>0.9804100818717917</v>
+        <v>1.043042283862084</v>
       </c>
       <c r="F4">
-        <v>0.993380166847428</v>
+        <v>1.060775930630987</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044248260692137</v>
+        <v>1.027684935387486</v>
       </c>
       <c r="J4">
-        <v>0.991731872357569</v>
+        <v>1.049923478576926</v>
       </c>
       <c r="K4">
-        <v>0.996214297831829</v>
+        <v>1.056888180187257</v>
       </c>
       <c r="L4">
-        <v>0.9907508350747009</v>
+        <v>1.04550856883493</v>
       </c>
       <c r="M4">
-        <v>1.003559149544761</v>
+        <v>1.063198813010238</v>
       </c>
       <c r="N4">
-        <v>0.9991891142496265</v>
+        <v>1.020193935201068</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9745434084166332</v>
+        <v>1.046009533595869</v>
       </c>
       <c r="D5">
-        <v>0.9887396315367125</v>
+        <v>1.055001274963467</v>
       </c>
       <c r="E5">
-        <v>0.9829346372884975</v>
+        <v>1.043539618239038</v>
       </c>
       <c r="F5">
-        <v>0.9962097658080532</v>
+        <v>1.061328209768736</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044448245457958</v>
+        <v>1.0276927655657</v>
       </c>
       <c r="J5">
-        <v>0.9941476695207644</v>
+        <v>1.050397771525939</v>
       </c>
       <c r="K5">
-        <v>0.9987478205368804</v>
+        <v>1.057387369488205</v>
       </c>
       <c r="L5">
-        <v>0.9930135898115939</v>
+        <v>1.04595330040775</v>
       </c>
       <c r="M5">
-        <v>1.006128397243873</v>
+        <v>1.063699349618831</v>
       </c>
       <c r="N5">
-        <v>1.000069151017365</v>
+        <v>1.020359951564805</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9750381150434422</v>
+        <v>1.046105534600325</v>
       </c>
       <c r="D6">
-        <v>0.9892052777576117</v>
+        <v>1.055093770836404</v>
       </c>
       <c r="E6">
-        <v>0.9833550334745339</v>
+        <v>1.043623063186663</v>
       </c>
       <c r="F6">
-        <v>0.9966808894680411</v>
+        <v>1.061420863077723</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044481255217943</v>
+        <v>1.027694040127395</v>
       </c>
       <c r="J6">
-        <v>0.9945497990557179</v>
+        <v>1.050477337751748</v>
       </c>
       <c r="K6">
-        <v>0.9991695730601959</v>
+        <v>1.057471113746126</v>
       </c>
       <c r="L6">
-        <v>0.9933902559253692</v>
+        <v>1.046027907193281</v>
       </c>
       <c r="M6">
-        <v>1.006556053202803</v>
+        <v>1.063783309675214</v>
       </c>
       <c r="N6">
-        <v>1.000215585290254</v>
+        <v>1.020387790379049</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.97161190956272</v>
+        <v>1.045445018770858</v>
       </c>
       <c r="D7">
-        <v>0.9859808358423905</v>
+        <v>1.054457366052258</v>
       </c>
       <c r="E7">
-        <v>0.9804440520634961</v>
+        <v>1.043048933281786</v>
       </c>
       <c r="F7">
-        <v>0.9934182463168095</v>
+        <v>1.060783315372962</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044250971269559</v>
+        <v>1.027685042706064</v>
       </c>
       <c r="J7">
-        <v>0.9917643896656478</v>
+        <v>1.049929820783716</v>
       </c>
       <c r="K7">
-        <v>0.9962483979438135</v>
+        <v>1.056894855206543</v>
       </c>
       <c r="L7">
-        <v>0.9907812915764123</v>
+        <v>1.045514515769146</v>
       </c>
       <c r="M7">
-        <v>1.003593733385748</v>
+        <v>1.063205506730383</v>
       </c>
       <c r="N7">
-        <v>0.9992009634605669</v>
+        <v>1.020196155941356</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9566331794760151</v>
+        <v>1.042674133550388</v>
       </c>
       <c r="D8">
-        <v>0.9718984995231683</v>
+        <v>1.051787503351642</v>
       </c>
       <c r="E8">
-        <v>0.9677340507938194</v>
+        <v>1.040640360279395</v>
       </c>
       <c r="F8">
-        <v>0.9791627814626239</v>
+        <v>1.058107172880884</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043202946668216</v>
+        <v>1.02764161698663</v>
       </c>
       <c r="J8">
-        <v>0.9795787761496336</v>
+        <v>1.047631042552186</v>
       </c>
       <c r="K8">
-        <v>0.9834730760240737</v>
+        <v>1.054475621319187</v>
       </c>
       <c r="L8">
-        <v>0.979369580332355</v>
+        <v>1.043358973527239</v>
       </c>
       <c r="M8">
-        <v>0.9906326049716095</v>
+        <v>1.060778310812666</v>
       </c>
       <c r="N8">
-        <v>0.9947545254109433</v>
+        <v>1.01938987734905</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9272031858912237</v>
+        <v>1.037751677299642</v>
       </c>
       <c r="D9">
-        <v>0.9443053096288639</v>
+        <v>1.047044127079332</v>
       </c>
       <c r="E9">
-        <v>0.9428466442807152</v>
+        <v>1.036361331419253</v>
       </c>
       <c r="F9">
-        <v>0.9512133172159397</v>
+        <v>1.053347077865635</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04099644908768</v>
+        <v>1.027543104352477</v>
       </c>
       <c r="J9">
-        <v>0.9556171569586919</v>
+        <v>1.04354003850446</v>
       </c>
       <c r="K9">
-        <v>0.9583716116686631</v>
+        <v>1.050171093447045</v>
       </c>
       <c r="L9">
-        <v>0.956940454821985</v>
+        <v>1.039522730937773</v>
       </c>
       <c r="M9">
-        <v>0.9651508368870524</v>
+        <v>1.056454086610741</v>
       </c>
       <c r="N9">
-        <v>0.9859879675858139</v>
+        <v>1.017948640652737</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9048377284101063</v>
+        <v>1.034441409668856</v>
       </c>
       <c r="D10">
-        <v>0.92341208487209</v>
+        <v>1.04385410599897</v>
       </c>
       <c r="E10">
-        <v>0.9240187147248105</v>
+        <v>1.033483689148319</v>
       </c>
       <c r="F10">
-        <v>0.9300481357876489</v>
+        <v>1.050142119502931</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039236445020359</v>
+        <v>1.027462582757605</v>
       </c>
       <c r="J10">
-        <v>0.9374113733181046</v>
+        <v>1.040784075196985</v>
       </c>
       <c r="K10">
-        <v>0.9393170306114696</v>
+        <v>1.047271875499987</v>
       </c>
       <c r="L10">
-        <v>0.9399101644012118</v>
+        <v>1.036938302361788</v>
       </c>
       <c r="M10">
-        <v>0.9458067167431987</v>
+        <v>1.053537939405038</v>
       </c>
       <c r="N10">
-        <v>0.9793201470524462</v>
+        <v>1.016973504750287</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8942807783972231</v>
+        <v>1.033000816257124</v>
       </c>
       <c r="D11">
-        <v>0.9135756088061047</v>
+        <v>1.042465816694244</v>
       </c>
       <c r="E11">
-        <v>0.9151600923966305</v>
+        <v>1.032231370611268</v>
       </c>
       <c r="F11">
-        <v>0.920085932939101</v>
+        <v>1.048746464681396</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038391159913236</v>
+        <v>1.027424179872915</v>
       </c>
       <c r="J11">
-        <v>0.9288242662124836</v>
+        <v>1.03958357236153</v>
       </c>
       <c r="K11">
-        <v>0.9303347185796191</v>
+        <v>1.046009114740423</v>
       </c>
       <c r="L11">
-        <v>0.9318813257842804</v>
+        <v>1.035812501560061</v>
       </c>
       <c r="M11">
-        <v>0.9366905322134171</v>
+        <v>1.052266949372225</v>
       </c>
       <c r="N11">
-        <v>0.9761761083386546</v>
+        <v>1.016547742060902</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8902024582956191</v>
+        <v>1.032464593665958</v>
       </c>
       <c r="D12">
-        <v>0.9097802842891562</v>
+        <v>1.04194906047765</v>
       </c>
       <c r="E12">
-        <v>0.9117430793367806</v>
+        <v>1.031765229927689</v>
       </c>
       <c r="F12">
-        <v>0.9162427549737032</v>
+        <v>1.04822683785303</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038062988539873</v>
+        <v>1.027409382618869</v>
       </c>
       <c r="J12">
-        <v>0.9255085119588283</v>
+        <v>1.039136547133105</v>
       </c>
       <c r="K12">
-        <v>0.9268672475522368</v>
+        <v>1.045538928858183</v>
       </c>
       <c r="L12">
-        <v>0.9287818464845355</v>
+        <v>1.03539329012047</v>
       </c>
       <c r="M12">
-        <v>0.933172080294454</v>
+        <v>1.051793571893701</v>
       </c>
       <c r="N12">
-        <v>0.9749625328004151</v>
+        <v>1.016389054868521</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8910848789643138</v>
+        <v>1.032579666599452</v>
       </c>
       <c r="D13">
-        <v>0.9106012481985382</v>
+        <v>1.042059956029779</v>
       </c>
       <c r="E13">
-        <v>0.9124821617628385</v>
+        <v>1.031865263245098</v>
       </c>
       <c r="F13">
-        <v>0.9170740347057207</v>
+        <v>1.048338355256114</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038134057476534</v>
+        <v>1.027412580809394</v>
       </c>
       <c r="J13">
-        <v>0.9262258542120263</v>
+        <v>1.039232486060701</v>
       </c>
       <c r="K13">
-        <v>0.9276173709343029</v>
+        <v>1.045639837439021</v>
       </c>
       <c r="L13">
-        <v>0.9294523645278998</v>
+        <v>1.03548325986992</v>
       </c>
       <c r="M13">
-        <v>0.9339331954052245</v>
+        <v>1.051895171183832</v>
       </c>
       <c r="N13">
-        <v>0.9752250570090081</v>
+        <v>1.016423118419746</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8939470439192337</v>
+        <v>1.0329565150333</v>
       </c>
       <c r="D14">
-        <v>0.9132649328288008</v>
+        <v>1.042423123769575</v>
       </c>
       <c r="E14">
-        <v>0.9148803623789165</v>
+        <v>1.03219285931943</v>
       </c>
       <c r="F14">
-        <v>0.9197713245252473</v>
+        <v>1.048703537218866</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038364334327586</v>
+        <v>1.027422967602713</v>
       </c>
       <c r="J14">
-        <v>0.9285528974789014</v>
+        <v>1.039546643836766</v>
       </c>
       <c r="K14">
-        <v>0.9300509144743261</v>
+        <v>1.04597027247497</v>
       </c>
       <c r="L14">
-        <v>0.9316276422742498</v>
+        <v>1.035777870770669</v>
       </c>
       <c r="M14">
-        <v>0.9364025393918759</v>
+        <v>1.05222784603902</v>
       </c>
       <c r="N14">
-        <v>0.976076775880077</v>
+        <v>1.01653463600634</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.895688806762693</v>
+        <v>1.033188554005845</v>
       </c>
       <c r="D15">
-        <v>0.914886546535166</v>
+        <v>1.042646738773484</v>
       </c>
       <c r="E15">
-        <v>0.9163404917485866</v>
+        <v>1.032394572118477</v>
       </c>
       <c r="F15">
-        <v>0.9214134926036007</v>
+        <v>1.048928375402331</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038504275409982</v>
+        <v>1.027429296616665</v>
       </c>
       <c r="J15">
-        <v>0.9299692409324594</v>
+        <v>1.039740059465444</v>
       </c>
       <c r="K15">
-        <v>0.931532197697105</v>
+        <v>1.04617371235203</v>
       </c>
       <c r="L15">
-        <v>0.9329517114784089</v>
+        <v>1.035959251749436</v>
       </c>
       <c r="M15">
-        <v>0.9379057152625487</v>
+        <v>1.05243264807456</v>
       </c>
       <c r="N15">
-        <v>0.9765952371459014</v>
+        <v>1.016603273794933</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9055179315954721</v>
+        <v>1.034536861772508</v>
       </c>
       <c r="D16">
-        <v>0.9240464491434295</v>
+        <v>1.043946092069931</v>
       </c>
       <c r="E16">
-        <v>0.9245901425826502</v>
+        <v>1.033566666512691</v>
       </c>
       <c r="F16">
-        <v>0.9306906793321076</v>
+        <v>1.050234575498458</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039290656930044</v>
+        <v>1.027465056802834</v>
       </c>
       <c r="J16">
-        <v>0.9379648336432608</v>
+        <v>1.040863595334561</v>
       </c>
       <c r="K16">
-        <v>0.9398960760946098</v>
+        <v>1.047355522601719</v>
       </c>
       <c r="L16">
-        <v>0.9404277310018838</v>
+        <v>1.037012873930372</v>
       </c>
       <c r="M16">
-        <v>0.9463944692273655</v>
+        <v>1.053622113733429</v>
       </c>
       <c r="N16">
-        <v>0.9795228304161054</v>
+        <v>1.017001686089629</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9114338120948805</v>
+        <v>1.035380659530971</v>
       </c>
       <c r="D17">
-        <v>0.9295665481830987</v>
+        <v>1.044759247250974</v>
       </c>
       <c r="E17">
-        <v>0.9295632076991339</v>
+        <v>1.034300187707676</v>
       </c>
       <c r="F17">
-        <v>0.9362822364952009</v>
+        <v>1.051051785276018</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039760604258468</v>
+        <v>1.027486540433762</v>
       </c>
       <c r="J17">
-        <v>0.9427791628614648</v>
+        <v>1.04156642343965</v>
       </c>
       <c r="K17">
-        <v>0.944933538222688</v>
+        <v>1.048094842965343</v>
       </c>
       <c r="L17">
-        <v>0.9449302686613659</v>
+        <v>1.037671962626534</v>
       </c>
       <c r="M17">
-        <v>0.9515079960968187</v>
+        <v>1.054365995612413</v>
       </c>
       <c r="N17">
-        <v>0.9812860254492695</v>
+        <v>1.017250649002791</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9148023365575795</v>
+        <v>1.035872137807931</v>
       </c>
       <c r="D18">
-        <v>0.9327119907608676</v>
+        <v>1.045232874866954</v>
       </c>
       <c r="E18">
-        <v>0.9323974333222501</v>
+        <v>1.034727434307427</v>
       </c>
       <c r="F18">
-        <v>0.9394685863806392</v>
+        <v>1.051527691259035</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04002682542291</v>
+        <v>1.027498730348392</v>
       </c>
       <c r="J18">
-        <v>0.9455209990296283</v>
+        <v>1.041975683147666</v>
       </c>
       <c r="K18">
-        <v>0.9478029153142576</v>
+        <v>1.048525366092448</v>
       </c>
       <c r="L18">
-        <v>0.9474948747882048</v>
+        <v>1.038055750873549</v>
       </c>
       <c r="M18">
-        <v>0.9544209179312104</v>
+        <v>1.054799092663844</v>
       </c>
       <c r="N18">
-        <v>0.9822902601491005</v>
+        <v>1.017395525733584</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9159376593457118</v>
+        <v>1.036039602464634</v>
       </c>
       <c r="D19">
-        <v>0.9337724921470749</v>
+        <v>1.045394256666047</v>
       </c>
       <c r="E19">
-        <v>0.9333530852965207</v>
+        <v>1.034873012832455</v>
       </c>
       <c r="F19">
-        <v>0.9405429041213053</v>
+        <v>1.051689835227964</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040116305595624</v>
+        <v>1.02750282897492</v>
       </c>
       <c r="J19">
-        <v>0.9464451796935678</v>
+        <v>1.042115114342625</v>
       </c>
       <c r="K19">
-        <v>0.9487701614846726</v>
+        <v>1.048672043881813</v>
       </c>
       <c r="L19">
-        <v>0.9483593715453607</v>
+        <v>1.038186503850062</v>
       </c>
       <c r="M19">
-        <v>0.9554028718767115</v>
+        <v>1.054946633379013</v>
       </c>
       <c r="N19">
-        <v>0.9826287579074704</v>
+        <v>1.017444867756544</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.910807750544927</v>
+        <v>1.035290200133377</v>
       </c>
       <c r="D20">
-        <v>0.928982128298724</v>
+        <v>1.044672073150759</v>
       </c>
       <c r="E20">
-        <v>0.9290366505346355</v>
+        <v>1.034221550507517</v>
       </c>
       <c r="F20">
-        <v>0.9356902295648316</v>
+        <v>1.05096418511364</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039711010337987</v>
+        <v>1.027484270737497</v>
       </c>
       <c r="J20">
-        <v>0.9422696154095493</v>
+        <v>1.041491088020983</v>
       </c>
       <c r="K20">
-        <v>0.9444003253921602</v>
+        <v>1.048015594545441</v>
       </c>
       <c r="L20">
-        <v>0.9444536848269606</v>
+        <v>1.03760131577718</v>
       </c>
       <c r="M20">
-        <v>0.9509667072259927</v>
+        <v>1.054286266754894</v>
       </c>
       <c r="N20">
-        <v>0.9810994004591788</v>
+        <v>1.017223972793035</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8931087891323488</v>
+        <v>1.03284557383243</v>
       </c>
       <c r="D21">
-        <v>0.912484672821205</v>
+        <v>1.042316210112464</v>
       </c>
       <c r="E21">
-        <v>0.9141778398345086</v>
+        <v>1.032096417568314</v>
       </c>
       <c r="F21">
-        <v>0.91898119993199</v>
+        <v>1.048596034141595</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038296931500354</v>
+        <v>1.027419923667897</v>
       </c>
       <c r="J21">
-        <v>0.9278713170723981</v>
+        <v>1.039454162952895</v>
       </c>
       <c r="K21">
-        <v>0.9293381154629945</v>
+        <v>1.045872999326649</v>
       </c>
       <c r="L21">
-        <v>0.9309904926505469</v>
+        <v>1.035691144112139</v>
       </c>
       <c r="M21">
-        <v>0.9356792323776748</v>
+        <v>1.052129917041822</v>
       </c>
       <c r="N21">
-        <v>0.9758272966728407</v>
+        <v>1.016501811849899</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8810530907238654</v>
+        <v>1.03130202986684</v>
       </c>
       <c r="D22">
-        <v>0.9012756242050333</v>
+        <v>1.040828698125802</v>
       </c>
       <c r="E22">
-        <v>0.9040883003495447</v>
+        <v>1.030754612567279</v>
       </c>
       <c r="F22">
-        <v>0.9076325062148798</v>
+        <v>1.047100016786699</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037324467925213</v>
+        <v>1.027376383270204</v>
       </c>
       <c r="J22">
-        <v>0.9180737141200367</v>
+        <v>1.038167058543649</v>
       </c>
       <c r="K22">
-        <v>0.9190940566006608</v>
+        <v>1.04451925118196</v>
       </c>
       <c r="L22">
-        <v>0.9218335055052802</v>
+        <v>1.034484118242813</v>
       </c>
       <c r="M22">
-        <v>0.9252863129595145</v>
+        <v>1.050766740611898</v>
       </c>
       <c r="N22">
-        <v>0.9722425855186915</v>
+        <v>1.016044631015928</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8875428761949719</v>
+        <v>1.032120921175794</v>
       </c>
       <c r="D23">
-        <v>0.9073066916120578</v>
+        <v>1.041617863752599</v>
       </c>
       <c r="E23">
-        <v>0.9095163648540642</v>
+        <v>1.031466474534284</v>
       </c>
       <c r="F23">
-        <v>0.9137382050898679</v>
+        <v>1.047893765115179</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037848600803216</v>
+        <v>1.027399757555554</v>
       </c>
       <c r="J23">
-        <v>0.9233467606218826</v>
+        <v>1.038849994717449</v>
       </c>
       <c r="K23">
-        <v>0.9246068482153282</v>
+        <v>1.045237536230287</v>
       </c>
       <c r="L23">
-        <v>0.9267613194005422</v>
+        <v>1.035124566201603</v>
       </c>
       <c r="M23">
-        <v>0.9308786889381031</v>
+        <v>1.051490097684546</v>
       </c>
       <c r="N23">
-        <v>0.9741714921800583</v>
+        <v>1.016287291519866</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9110908926797263</v>
+        <v>1.035331076986548</v>
       </c>
       <c r="D24">
-        <v>0.9292464305527645</v>
+        <v>1.044711465449675</v>
       </c>
       <c r="E24">
-        <v>0.9292747830136742</v>
+        <v>1.034257085138341</v>
       </c>
       <c r="F24">
-        <v>0.9359579624701434</v>
+        <v>1.051003770199374</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039733443959211</v>
+        <v>1.027485297369633</v>
       </c>
       <c r="J24">
-        <v>0.9425000613246685</v>
+        <v>1.041525130978807</v>
       </c>
       <c r="K24">
-        <v>0.9446414726797979</v>
+        <v>1.048051405687731</v>
       </c>
       <c r="L24">
-        <v>0.9446692216944894</v>
+        <v>1.037633240045754</v>
       </c>
       <c r="M24">
-        <v>0.9512115062719094</v>
+        <v>1.054322295254302</v>
       </c>
       <c r="N24">
-        <v>0.9811838025490272</v>
+        <v>1.017236027671483</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9352343422958956</v>
+        <v>1.039029157652932</v>
       </c>
       <c r="D25">
-        <v>0.9518245247011562</v>
+        <v>1.048275170050304</v>
       </c>
       <c r="E25">
-        <v>0.9496261956994042</v>
+        <v>1.037471846658491</v>
       </c>
       <c r="F25">
-        <v>0.9588307318611704</v>
+        <v>1.054583111957935</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041613752296794</v>
+        <v>1.027571184376755</v>
       </c>
       <c r="J25">
-        <v>0.962156794696821</v>
+        <v>1.04460259121901</v>
       </c>
       <c r="K25">
-        <v>0.9652197670906556</v>
+        <v>1.051289002719167</v>
       </c>
       <c r="L25">
-        <v>0.9630603057057938</v>
+        <v>1.040519131056116</v>
       </c>
       <c r="M25">
-        <v>0.9721036392164775</v>
+        <v>1.057577758147567</v>
       </c>
       <c r="N25">
-        <v>0.9883824190431088</v>
+        <v>1.018323716631685</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_138/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_138/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041958160785839</v>
+        <v>0.9525919576859868</v>
       </c>
       <c r="D2">
-        <v>1.051097604992053</v>
+        <v>0.9681033301282608</v>
       </c>
       <c r="E2">
-        <v>1.040017988306788</v>
+        <v>0.9643096785950326</v>
       </c>
       <c r="F2">
-        <v>1.057415273793603</v>
+        <v>0.9753195797311826</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027628946937137</v>
+        <v>1.042910136160534</v>
       </c>
       <c r="J2">
-        <v>1.047036566779596</v>
+        <v>0.9762893937994099</v>
       </c>
       <c r="K2">
-        <v>1.05385005141357</v>
+        <v>0.9800256784186286</v>
       </c>
       <c r="L2">
-        <v>1.042801528972241</v>
+        <v>0.9762896944008922</v>
       </c>
       <c r="M2">
-        <v>1.060150306127538</v>
+        <v>0.9871338076228838</v>
       </c>
       <c r="N2">
-        <v>1.019180938722228</v>
+        <v>0.9935525094764127</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044073576991271</v>
+        <v>0.9643246988691829</v>
       </c>
       <c r="D3">
-        <v>1.053135948741015</v>
+        <v>0.9791267371689621</v>
       </c>
       <c r="E3">
-        <v>1.04185683168851</v>
+        <v>0.974257204093174</v>
       </c>
       <c r="F3">
-        <v>1.059459085152227</v>
+        <v>0.9864810255500579</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027664679818867</v>
+        <v>1.043748967110138</v>
       </c>
       <c r="J3">
-        <v>1.048792430403403</v>
+        <v>0.9858375235302139</v>
       </c>
       <c r="K3">
-        <v>1.055697822168346</v>
+        <v>0.9900338507243407</v>
       </c>
       <c r="L3">
-        <v>1.04444800394525</v>
+        <v>0.9852304213081735</v>
       </c>
       <c r="M3">
-        <v>1.062004827721543</v>
+        <v>0.9972898573938387</v>
       </c>
       <c r="N3">
-        <v>1.019797561336916</v>
+        <v>0.9970397116504894</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045437368906899</v>
+        <v>0.9715719175576901</v>
       </c>
       <c r="D4">
-        <v>1.054449995362226</v>
+        <v>0.9859432058398359</v>
       </c>
       <c r="E4">
-        <v>1.043042283862084</v>
+        <v>0.9804100818717887</v>
       </c>
       <c r="F4">
-        <v>1.060775930630987</v>
+        <v>0.9933801668474256</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027684935387486</v>
+        <v>1.044248260692137</v>
       </c>
       <c r="J4">
-        <v>1.049923478576926</v>
+        <v>0.9917318723575662</v>
       </c>
       <c r="K4">
-        <v>1.056888180187257</v>
+        <v>0.9962142978318261</v>
       </c>
       <c r="L4">
-        <v>1.04550856883493</v>
+        <v>0.9907508350746981</v>
       </c>
       <c r="M4">
-        <v>1.063198813010238</v>
+        <v>1.003559149544759</v>
       </c>
       <c r="N4">
-        <v>1.020193935201068</v>
+        <v>0.9991891142496256</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046009533595869</v>
+        <v>0.974543408416633</v>
       </c>
       <c r="D5">
-        <v>1.055001274963467</v>
+        <v>0.9887396315367124</v>
       </c>
       <c r="E5">
-        <v>1.043539618239038</v>
+        <v>0.9829346372884972</v>
       </c>
       <c r="F5">
-        <v>1.061328209768736</v>
+        <v>0.9962097658080533</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0276927655657</v>
+        <v>1.044448245457958</v>
       </c>
       <c r="J5">
-        <v>1.050397771525939</v>
+        <v>0.9941476695207643</v>
       </c>
       <c r="K5">
-        <v>1.057387369488205</v>
+        <v>0.9987478205368799</v>
       </c>
       <c r="L5">
-        <v>1.04595330040775</v>
+        <v>0.9930135898115937</v>
       </c>
       <c r="M5">
-        <v>1.063699349618831</v>
+        <v>1.006128397243874</v>
       </c>
       <c r="N5">
-        <v>1.020359951564805</v>
+        <v>1.000069151017365</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046105534600325</v>
+        <v>0.9750381150434432</v>
       </c>
       <c r="D6">
-        <v>1.055093770836404</v>
+        <v>0.989205277757613</v>
       </c>
       <c r="E6">
-        <v>1.043623063186663</v>
+        <v>0.9833550334745349</v>
       </c>
       <c r="F6">
-        <v>1.061420863077723</v>
+        <v>0.9966808894680423</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027694040127395</v>
+        <v>1.044481255217943</v>
       </c>
       <c r="J6">
-        <v>1.050477337751748</v>
+        <v>0.9945497990557191</v>
       </c>
       <c r="K6">
-        <v>1.057471113746126</v>
+        <v>0.999169573060197</v>
       </c>
       <c r="L6">
-        <v>1.046027907193281</v>
+        <v>0.9933902559253702</v>
       </c>
       <c r="M6">
-        <v>1.063783309675214</v>
+        <v>1.006556053202804</v>
       </c>
       <c r="N6">
-        <v>1.020387790379049</v>
+        <v>1.000215585290255</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045445018770858</v>
+        <v>0.9716119095627188</v>
       </c>
       <c r="D7">
-        <v>1.054457366052258</v>
+        <v>0.9859808358423893</v>
       </c>
       <c r="E7">
-        <v>1.043048933281786</v>
+        <v>0.9804440520634946</v>
       </c>
       <c r="F7">
-        <v>1.060783315372962</v>
+        <v>0.9934182463168083</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027685042706064</v>
+        <v>1.044250971269559</v>
       </c>
       <c r="J7">
-        <v>1.049929820783716</v>
+        <v>0.9917643896656465</v>
       </c>
       <c r="K7">
-        <v>1.056894855206543</v>
+        <v>0.9962483979438123</v>
       </c>
       <c r="L7">
-        <v>1.045514515769146</v>
+        <v>0.9907812915764108</v>
       </c>
       <c r="M7">
-        <v>1.063205506730383</v>
+        <v>1.003593733385747</v>
       </c>
       <c r="N7">
-        <v>1.020196155941356</v>
+        <v>0.9992009634605665</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042674133550388</v>
+        <v>0.9566331794760151</v>
       </c>
       <c r="D8">
-        <v>1.051787503351642</v>
+        <v>0.9718984995231684</v>
       </c>
       <c r="E8">
-        <v>1.040640360279395</v>
+        <v>0.9677340507938198</v>
       </c>
       <c r="F8">
-        <v>1.058107172880884</v>
+        <v>0.979162781462624</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02764161698663</v>
+        <v>1.043202946668216</v>
       </c>
       <c r="J8">
-        <v>1.047631042552186</v>
+        <v>0.9795787761496337</v>
       </c>
       <c r="K8">
-        <v>1.054475621319187</v>
+        <v>0.9834730760240741</v>
       </c>
       <c r="L8">
-        <v>1.043358973527239</v>
+        <v>0.9793695803323552</v>
       </c>
       <c r="M8">
-        <v>1.060778310812666</v>
+        <v>0.9906326049716097</v>
       </c>
       <c r="N8">
-        <v>1.01938987734905</v>
+        <v>0.9947545254109433</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037751677299642</v>
+        <v>0.9272031858912264</v>
       </c>
       <c r="D9">
-        <v>1.047044127079332</v>
+        <v>0.9443053096288671</v>
       </c>
       <c r="E9">
-        <v>1.036361331419253</v>
+        <v>0.9428466442807174</v>
       </c>
       <c r="F9">
-        <v>1.053347077865635</v>
+        <v>0.9512133172159423</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027543104352477</v>
+        <v>1.04099644908768</v>
       </c>
       <c r="J9">
-        <v>1.04354003850446</v>
+        <v>0.9556171569586944</v>
       </c>
       <c r="K9">
-        <v>1.050171093447045</v>
+        <v>0.9583716116686659</v>
       </c>
       <c r="L9">
-        <v>1.039522730937773</v>
+        <v>0.9569404548219873</v>
       </c>
       <c r="M9">
-        <v>1.056454086610741</v>
+        <v>0.9651508368870551</v>
       </c>
       <c r="N9">
-        <v>1.017948640652737</v>
+        <v>0.9859879675858146</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034441409668856</v>
+        <v>0.9048377284101041</v>
       </c>
       <c r="D10">
-        <v>1.04385410599897</v>
+        <v>0.9234120848720879</v>
       </c>
       <c r="E10">
-        <v>1.033483689148319</v>
+        <v>0.9240187147248082</v>
       </c>
       <c r="F10">
-        <v>1.050142119502931</v>
+        <v>0.9300481357876469</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027462582757605</v>
+        <v>1.039236445020359</v>
       </c>
       <c r="J10">
-        <v>1.040784075196985</v>
+        <v>0.9374113733181029</v>
       </c>
       <c r="K10">
-        <v>1.047271875499987</v>
+        <v>0.9393170306114675</v>
       </c>
       <c r="L10">
-        <v>1.036938302361788</v>
+        <v>0.9399101644012098</v>
       </c>
       <c r="M10">
-        <v>1.053537939405038</v>
+        <v>0.9458067167431968</v>
       </c>
       <c r="N10">
-        <v>1.016973504750287</v>
+        <v>0.9793201470524456</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033000816257124</v>
+        <v>0.8942807783972218</v>
       </c>
       <c r="D11">
-        <v>1.042465816694244</v>
+        <v>0.9135756088061031</v>
       </c>
       <c r="E11">
-        <v>1.032231370611268</v>
+        <v>0.9151600923966292</v>
       </c>
       <c r="F11">
-        <v>1.048746464681396</v>
+        <v>0.9200859329390995</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027424179872915</v>
+        <v>1.038391159913236</v>
       </c>
       <c r="J11">
-        <v>1.03958357236153</v>
+        <v>0.9288242662124822</v>
       </c>
       <c r="K11">
-        <v>1.046009114740423</v>
+        <v>0.9303347185796176</v>
       </c>
       <c r="L11">
-        <v>1.035812501560061</v>
+        <v>0.9318813257842794</v>
       </c>
       <c r="M11">
-        <v>1.052266949372225</v>
+        <v>0.9366905322134156</v>
       </c>
       <c r="N11">
-        <v>1.016547742060902</v>
+        <v>0.9761761083386543</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032464593665958</v>
+        <v>0.8902024582956181</v>
       </c>
       <c r="D12">
-        <v>1.04194906047765</v>
+        <v>0.9097802842891554</v>
       </c>
       <c r="E12">
-        <v>1.031765229927689</v>
+        <v>0.9117430793367794</v>
       </c>
       <c r="F12">
-        <v>1.04822683785303</v>
+        <v>0.9162427549737024</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027409382618869</v>
+        <v>1.038062988539873</v>
       </c>
       <c r="J12">
-        <v>1.039136547133105</v>
+        <v>0.9255085119588273</v>
       </c>
       <c r="K12">
-        <v>1.045538928858183</v>
+        <v>0.926867247552236</v>
       </c>
       <c r="L12">
-        <v>1.03539329012047</v>
+        <v>0.9287818464845343</v>
       </c>
       <c r="M12">
-        <v>1.051793571893701</v>
+        <v>0.9331720802944533</v>
       </c>
       <c r="N12">
-        <v>1.016389054868521</v>
+        <v>0.9749625328004147</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032579666599452</v>
+        <v>0.8910848789643101</v>
       </c>
       <c r="D13">
-        <v>1.042059956029779</v>
+        <v>0.9106012481985348</v>
       </c>
       <c r="E13">
-        <v>1.031865263245098</v>
+        <v>0.9124821617628351</v>
       </c>
       <c r="F13">
-        <v>1.048338355256114</v>
+        <v>0.9170740347057176</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027412580809394</v>
+        <v>1.038134057476534</v>
       </c>
       <c r="J13">
-        <v>1.039232486060701</v>
+        <v>0.9262258542120232</v>
       </c>
       <c r="K13">
-        <v>1.045639837439021</v>
+        <v>0.9276173709342994</v>
       </c>
       <c r="L13">
-        <v>1.03548325986992</v>
+        <v>0.9294523645278966</v>
       </c>
       <c r="M13">
-        <v>1.051895171183832</v>
+        <v>0.9339331954052211</v>
       </c>
       <c r="N13">
-        <v>1.016423118419746</v>
+        <v>0.9752250570090072</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.0329565150333</v>
+        <v>0.8939470439192335</v>
       </c>
       <c r="D14">
-        <v>1.042423123769575</v>
+        <v>0.9132649328288008</v>
       </c>
       <c r="E14">
-        <v>1.03219285931943</v>
+        <v>0.9148803623789161</v>
       </c>
       <c r="F14">
-        <v>1.048703537218866</v>
+        <v>0.9197713245252473</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027422967602713</v>
+        <v>1.038364334327585</v>
       </c>
       <c r="J14">
-        <v>1.039546643836766</v>
+        <v>0.9285528974789014</v>
       </c>
       <c r="K14">
-        <v>1.04597027247497</v>
+        <v>0.9300509144743261</v>
       </c>
       <c r="L14">
-        <v>1.035777870770669</v>
+        <v>0.9316276422742493</v>
       </c>
       <c r="M14">
-        <v>1.05222784603902</v>
+        <v>0.936402539391876</v>
       </c>
       <c r="N14">
-        <v>1.01653463600634</v>
+        <v>0.9760767758800771</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033188554005845</v>
+        <v>0.8956888067626918</v>
       </c>
       <c r="D15">
-        <v>1.042646738773484</v>
+        <v>0.9148865465351651</v>
       </c>
       <c r="E15">
-        <v>1.032394572118477</v>
+        <v>0.916340491748586</v>
       </c>
       <c r="F15">
-        <v>1.048928375402331</v>
+        <v>0.9214134926035999</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027429296616665</v>
+        <v>1.038504275409982</v>
       </c>
       <c r="J15">
-        <v>1.039740059465444</v>
+        <v>0.9299692409324586</v>
       </c>
       <c r="K15">
-        <v>1.04617371235203</v>
+        <v>0.9315321976971043</v>
       </c>
       <c r="L15">
-        <v>1.035959251749436</v>
+        <v>0.9329517114784084</v>
       </c>
       <c r="M15">
-        <v>1.05243264807456</v>
+        <v>0.937905715262548</v>
       </c>
       <c r="N15">
-        <v>1.016603273794933</v>
+        <v>0.9765952371459009</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034536861772508</v>
+        <v>0.9055179315954722</v>
       </c>
       <c r="D16">
-        <v>1.043946092069931</v>
+        <v>0.9240464491434295</v>
       </c>
       <c r="E16">
-        <v>1.033566666512691</v>
+        <v>0.9245901425826502</v>
       </c>
       <c r="F16">
-        <v>1.050234575498458</v>
+        <v>0.9306906793321076</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027465056802834</v>
+        <v>1.039290656930044</v>
       </c>
       <c r="J16">
-        <v>1.040863595334561</v>
+        <v>0.9379648336432608</v>
       </c>
       <c r="K16">
-        <v>1.047355522601719</v>
+        <v>0.9398960760946096</v>
       </c>
       <c r="L16">
-        <v>1.037012873930372</v>
+        <v>0.9404277310018839</v>
       </c>
       <c r="M16">
-        <v>1.053622113733429</v>
+        <v>0.9463944692273654</v>
       </c>
       <c r="N16">
-        <v>1.017001686089629</v>
+        <v>0.9795228304161054</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035380659530971</v>
+        <v>0.9114338120948822</v>
       </c>
       <c r="D17">
-        <v>1.044759247250974</v>
+        <v>0.9295665481831002</v>
       </c>
       <c r="E17">
-        <v>1.034300187707676</v>
+        <v>0.929563207699135</v>
       </c>
       <c r="F17">
-        <v>1.051051785276018</v>
+        <v>0.9362822364952025</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027486540433762</v>
+        <v>1.039760604258468</v>
       </c>
       <c r="J17">
-        <v>1.04156642343965</v>
+        <v>0.9427791628614665</v>
       </c>
       <c r="K17">
-        <v>1.048094842965343</v>
+        <v>0.9449335382226896</v>
       </c>
       <c r="L17">
-        <v>1.037671962626534</v>
+        <v>0.9449302686613672</v>
       </c>
       <c r="M17">
-        <v>1.054365995612413</v>
+        <v>0.9515079960968204</v>
       </c>
       <c r="N17">
-        <v>1.017250649002791</v>
+        <v>0.9812860254492701</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035872137807931</v>
+        <v>0.9148023365575786</v>
       </c>
       <c r="D18">
-        <v>1.045232874866954</v>
+        <v>0.9327119907608666</v>
       </c>
       <c r="E18">
-        <v>1.034727434307427</v>
+        <v>0.9323974333222494</v>
       </c>
       <c r="F18">
-        <v>1.051527691259035</v>
+        <v>0.9394685863806382</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027498730348392</v>
+        <v>1.04002682542291</v>
       </c>
       <c r="J18">
-        <v>1.041975683147666</v>
+        <v>0.9455209990296273</v>
       </c>
       <c r="K18">
-        <v>1.048525366092448</v>
+        <v>0.9478029153142568</v>
       </c>
       <c r="L18">
-        <v>1.038055750873549</v>
+        <v>0.9474948747882039</v>
       </c>
       <c r="M18">
-        <v>1.054799092663844</v>
+        <v>0.9544209179312095</v>
       </c>
       <c r="N18">
-        <v>1.017395525733584</v>
+        <v>0.9822902601491003</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036039602464634</v>
+        <v>0.9159376593457125</v>
       </c>
       <c r="D19">
-        <v>1.045394256666047</v>
+        <v>0.9337724921470754</v>
       </c>
       <c r="E19">
-        <v>1.034873012832455</v>
+        <v>0.9333530852965211</v>
       </c>
       <c r="F19">
-        <v>1.051689835227964</v>
+        <v>0.940542904121306</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02750282897492</v>
+        <v>1.040116305595624</v>
       </c>
       <c r="J19">
-        <v>1.042115114342625</v>
+        <v>0.9464451796935683</v>
       </c>
       <c r="K19">
-        <v>1.048672043881813</v>
+        <v>0.9487701614846732</v>
       </c>
       <c r="L19">
-        <v>1.038186503850062</v>
+        <v>0.948359371545361</v>
       </c>
       <c r="M19">
-        <v>1.054946633379013</v>
+        <v>0.9554028718767121</v>
       </c>
       <c r="N19">
-        <v>1.017444867756544</v>
+        <v>0.9826287579074706</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035290200133377</v>
+        <v>0.9108077505449275</v>
       </c>
       <c r="D20">
-        <v>1.044672073150759</v>
+        <v>0.9289821282987245</v>
       </c>
       <c r="E20">
-        <v>1.034221550507517</v>
+        <v>0.929036650534636</v>
       </c>
       <c r="F20">
-        <v>1.05096418511364</v>
+        <v>0.9356902295648325</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027484270737497</v>
+        <v>1.039711010337987</v>
       </c>
       <c r="J20">
-        <v>1.041491088020983</v>
+        <v>0.9422696154095497</v>
       </c>
       <c r="K20">
-        <v>1.048015594545441</v>
+        <v>0.9444003253921608</v>
       </c>
       <c r="L20">
-        <v>1.03760131577718</v>
+        <v>0.944453684826961</v>
       </c>
       <c r="M20">
-        <v>1.054286266754894</v>
+        <v>0.9509667072259933</v>
       </c>
       <c r="N20">
-        <v>1.017223972793035</v>
+        <v>0.981099400459179</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03284557383243</v>
+        <v>0.8931087891323487</v>
       </c>
       <c r="D21">
-        <v>1.042316210112464</v>
+        <v>0.9124846728212052</v>
       </c>
       <c r="E21">
-        <v>1.032096417568314</v>
+        <v>0.9141778398345082</v>
       </c>
       <c r="F21">
-        <v>1.048596034141595</v>
+        <v>0.91898119993199</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027419923667897</v>
+        <v>1.038296931500354</v>
       </c>
       <c r="J21">
-        <v>1.039454162952895</v>
+        <v>0.927871317072398</v>
       </c>
       <c r="K21">
-        <v>1.045872999326649</v>
+        <v>0.9293381154629945</v>
       </c>
       <c r="L21">
-        <v>1.035691144112139</v>
+        <v>0.9309904926505466</v>
       </c>
       <c r="M21">
-        <v>1.052129917041822</v>
+        <v>0.9356792323776749</v>
       </c>
       <c r="N21">
-        <v>1.016501811849899</v>
+        <v>0.9758272966728406</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03130202986684</v>
+        <v>0.8810530907238631</v>
       </c>
       <c r="D22">
-        <v>1.040828698125802</v>
+        <v>0.9012756242050308</v>
       </c>
       <c r="E22">
-        <v>1.030754612567279</v>
+        <v>0.904088300349543</v>
       </c>
       <c r="F22">
-        <v>1.047100016786699</v>
+        <v>0.9076325062148775</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027376383270204</v>
+        <v>1.037324467925213</v>
       </c>
       <c r="J22">
-        <v>1.038167058543649</v>
+        <v>0.9180737141200346</v>
       </c>
       <c r="K22">
-        <v>1.04451925118196</v>
+        <v>0.9190940566006583</v>
       </c>
       <c r="L22">
-        <v>1.034484118242813</v>
+        <v>0.9218335055052783</v>
       </c>
       <c r="M22">
-        <v>1.050766740611898</v>
+        <v>0.9252863129595122</v>
       </c>
       <c r="N22">
-        <v>1.016044631015928</v>
+        <v>0.9722425855186909</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032120921175794</v>
+        <v>0.8875428761949723</v>
       </c>
       <c r="D23">
-        <v>1.041617863752599</v>
+        <v>0.9073066916120581</v>
       </c>
       <c r="E23">
-        <v>1.031466474534284</v>
+        <v>0.9095163648540645</v>
       </c>
       <c r="F23">
-        <v>1.047893765115179</v>
+        <v>0.9137382050898684</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027399757555554</v>
+        <v>1.037848600803216</v>
       </c>
       <c r="J23">
-        <v>1.038849994717449</v>
+        <v>0.9233467606218829</v>
       </c>
       <c r="K23">
-        <v>1.045237536230287</v>
+        <v>0.9246068482153287</v>
       </c>
       <c r="L23">
-        <v>1.035124566201603</v>
+        <v>0.9267613194005424</v>
       </c>
       <c r="M23">
-        <v>1.051490097684546</v>
+        <v>0.9308786889381037</v>
       </c>
       <c r="N23">
-        <v>1.016287291519866</v>
+        <v>0.9741714921800587</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035331076986548</v>
+        <v>0.9110908926797262</v>
       </c>
       <c r="D24">
-        <v>1.044711465449675</v>
+        <v>0.9292464305527645</v>
       </c>
       <c r="E24">
-        <v>1.034257085138341</v>
+        <v>0.9292747830136744</v>
       </c>
       <c r="F24">
-        <v>1.051003770199374</v>
+        <v>0.9359579624701434</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027485297369633</v>
+        <v>1.039733443959211</v>
       </c>
       <c r="J24">
-        <v>1.041525130978807</v>
+        <v>0.9425000613246683</v>
       </c>
       <c r="K24">
-        <v>1.048051405687731</v>
+        <v>0.9446414726797976</v>
       </c>
       <c r="L24">
-        <v>1.037633240045754</v>
+        <v>0.9446692216944894</v>
       </c>
       <c r="M24">
-        <v>1.054322295254302</v>
+        <v>0.9512115062719093</v>
       </c>
       <c r="N24">
-        <v>1.017236027671483</v>
+        <v>0.9811838025490272</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.039029157652932</v>
+        <v>0.935234342295895</v>
       </c>
       <c r="D25">
-        <v>1.048275170050304</v>
+        <v>0.9518245247011555</v>
       </c>
       <c r="E25">
-        <v>1.037471846658491</v>
+        <v>0.9496261956994029</v>
       </c>
       <c r="F25">
-        <v>1.054583111957935</v>
+        <v>0.95883073186117</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027571184376755</v>
+        <v>1.041613752296794</v>
       </c>
       <c r="J25">
-        <v>1.04460259121901</v>
+        <v>0.9621567946968201</v>
       </c>
       <c r="K25">
-        <v>1.051289002719167</v>
+        <v>0.965219767090655</v>
       </c>
       <c r="L25">
-        <v>1.040519131056116</v>
+        <v>0.9630603057057925</v>
       </c>
       <c r="M25">
-        <v>1.057577758147567</v>
+        <v>0.9721036392164769</v>
       </c>
       <c r="N25">
-        <v>1.018323716631685</v>
+        <v>0.9883824190431084</v>
       </c>
     </row>
   </sheetData>
